--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.496113688372193</v>
+        <v>4.635132631875094</v>
       </c>
       <c r="C2">
-        <v>3.833496738626341</v>
+        <v>4.335934828584942</v>
       </c>
       <c r="D2">
-        <v>1.963348188967373</v>
+        <v>4.17919835902647</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.097509901463271</v>
+        <v>5.054160904105887</v>
       </c>
       <c r="C3">
-        <v>5.490475834291897</v>
+        <v>5.693740330016772</v>
       </c>
       <c r="D3">
-        <v>5.345057779236684</v>
+        <v>5.107213181945558</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-2.460237748838123</v>
+        <v>-3.568820585507038</v>
       </c>
       <c r="C4">
-        <v>-2.875233129142829</v>
+        <v>-3.969550452518689</v>
       </c>
       <c r="D4">
-        <v>-1.555947483063191</v>
+        <v>-2.770462735082901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-1.858292874540979</v>
+        <v>-2.570252499543546</v>
       </c>
       <c r="C5">
-        <v>-2.401219566589652</v>
+        <v>-3.083014689346153</v>
       </c>
       <c r="D5">
-        <v>-1.484634753611802</v>
+        <v>-1.753735549154023</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.294925209079414</v>
+        <v>4.200517335599696</v>
       </c>
       <c r="C6">
-        <v>4.608064286846858</v>
+        <v>4.120175788415037</v>
       </c>
       <c r="D6">
-        <v>4.411177326154281</v>
+        <v>4.381879135584232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.5041382326291699</v>
+        <v>0.6020887846591716</v>
       </c>
       <c r="C7">
-        <v>-1.369348794496317</v>
+        <v>0.4235859293205468</v>
       </c>
       <c r="D7">
-        <v>-0.05338568931512189</v>
+        <v>0.08750216363506702</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.8208622613515071</v>
+        <v>-0.4718772582566699</v>
       </c>
       <c r="C8">
-        <v>-1.217453753625697</v>
+        <v>-0.8989653981999246</v>
       </c>
       <c r="D8">
-        <v>-0.8128483662373065</v>
+        <v>-0.348651914604281</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>3.540284449719255</v>
+        <v>2.821484842960587</v>
       </c>
       <c r="C9">
-        <v>4.663393661013493</v>
+        <v>3.562320534213259</v>
       </c>
       <c r="D9">
-        <v>-0.3156654049116581</v>
+        <v>0.1414127683541988</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +658,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.572387623849524</v>
+        <v>1.04890157965436</v>
       </c>
       <c r="C10">
-        <v>0.3296426747492864</v>
+        <v>0.567550776861081</v>
       </c>
       <c r="D10">
-        <v>0.925252363353235</v>
+        <v>1.599234927860516</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.061552972519802</v>
+        <v>7.2048502955111</v>
       </c>
       <c r="C11">
-        <v>7.130780861759645</v>
+        <v>7.408050233456764</v>
       </c>
       <c r="D11">
-        <v>5.509281843388303</v>
+        <v>6.315749709125562</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-1.679179462821012</v>
+        <v>-2.584741815072955</v>
       </c>
       <c r="C12">
-        <v>-3.490261113540494</v>
+        <v>-3.848557356198368</v>
       </c>
       <c r="D12">
-        <v>-0.5944670304629418</v>
+        <v>-1.587665945184724</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1.000286875303913</v>
+        <v>-0.6515119014858683</v>
       </c>
       <c r="C13">
-        <v>1.452111051305249</v>
+        <v>-0.6553078043868843</v>
       </c>
       <c r="D13">
-        <v>0.6003971765823568</v>
+        <v>-0.9355248786604542</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>3.926323097751783</v>
+        <v>4.206079923188311</v>
       </c>
       <c r="C14">
-        <v>3.991137908820352</v>
+        <v>3.990244587425984</v>
       </c>
       <c r="D14">
-        <v>3.455689467087653</v>
+        <v>4.305752187063439</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.529521497694319</v>
+        <v>1.51934855731175</v>
       </c>
       <c r="C15">
-        <v>1.086350203817954</v>
+        <v>1.069933011212632</v>
       </c>
       <c r="D15">
-        <v>2.122435637971898</v>
+        <v>1.975395266964108</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +742,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-5.771834541765452</v>
+        <v>-5.203823489405679</v>
       </c>
       <c r="C16">
-        <v>-6.860695572444897</v>
+        <v>-6.109975542813483</v>
       </c>
       <c r="D16">
-        <v>-4.553399488426624</v>
+        <v>-4.179487269503268</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -756,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-2.167933113000631</v>
+        <v>-3.047706544217965</v>
       </c>
       <c r="C17">
-        <v>-2.603807000277958</v>
+        <v>-3.509577807106434</v>
       </c>
       <c r="D17">
-        <v>-1.691363676652458</v>
+        <v>-2.17185047697297</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>2.098640652654504</v>
+        <v>1.522804409288425</v>
       </c>
       <c r="C18">
-        <v>2.195820729377673</v>
+        <v>1.133282772054423</v>
       </c>
       <c r="D18">
-        <v>1.417699095349523</v>
+        <v>1.365052239759579</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-2.147694442670045</v>
+        <v>-2.929006397291034</v>
       </c>
       <c r="C19">
-        <v>-2.654706470412482</v>
+        <v>-4.026341895194941</v>
       </c>
       <c r="D19">
-        <v>-1.2002804957299</v>
+        <v>-1.934739655948281</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -798,13 +798,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.653595993769757</v>
+        <v>2.609424146963812</v>
       </c>
       <c r="C20">
-        <v>6.464147477622539</v>
+        <v>2.109552731878228</v>
       </c>
       <c r="D20">
-        <v>8.543368167206511</v>
+        <v>2.593818589935837</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>9.513257874486225</v>
+        <v>8.477674551863256</v>
       </c>
       <c r="C21">
-        <v>9.965650531027004</v>
+        <v>8.917437506332405</v>
       </c>
       <c r="D21">
-        <v>7.011588225012888</v>
+        <v>5.60635364847073</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2.597486272756644</v>
+        <v>2.102125582893288</v>
       </c>
       <c r="C22">
-        <v>2.518452879744415</v>
+        <v>2.092367102795301</v>
       </c>
       <c r="D22">
-        <v>3.489087564637972</v>
+        <v>3.002165087179631</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2.263812350517691</v>
+        <v>3.105995840422304</v>
       </c>
       <c r="C23">
-        <v>2.60186315307902</v>
+        <v>3.947900034067331</v>
       </c>
       <c r="D23">
-        <v>1.695408076085503</v>
+        <v>2.261389946593351</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>2.328984887295804</v>
+        <v>3.382767979920231</v>
       </c>
       <c r="C24">
-        <v>2.802398122076011</v>
+        <v>5.322952535423919</v>
       </c>
       <c r="D24">
-        <v>2.391560967792716</v>
+        <v>3.093510138869027</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -868,13 +868,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-6.936452612169353</v>
+        <v>-5.398595138072759</v>
       </c>
       <c r="C25">
-        <v>-7.553938083911882</v>
+        <v>-6.323372414088535</v>
       </c>
       <c r="D25">
-        <v>-6.669010004979848</v>
+        <v>-5.100920827868782</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -882,13 +882,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.9968947737049927</v>
+        <v>0.2432470089226424</v>
       </c>
       <c r="C26">
-        <v>0.9445358309856822</v>
+        <v>0.1069797434766429</v>
       </c>
       <c r="D26">
-        <v>0.562545643580048</v>
+        <v>0.02798763428759621</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.7734224721465788</v>
+        <v>0.6642445725263624</v>
       </c>
       <c r="C27">
-        <v>1.129565689986878</v>
+        <v>0.5971318606841747</v>
       </c>
       <c r="D27">
-        <v>0.2762694889443917</v>
+        <v>0.4374204688474714</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-2.949624652738259</v>
+        <v>-3.976196493969686</v>
       </c>
       <c r="C28">
-        <v>-3.752515828314074</v>
+        <v>-4.912471436776745</v>
       </c>
       <c r="D28">
-        <v>-1.801025546837343</v>
+        <v>-3.023461082951129</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -924,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.9784253076136951</v>
+        <v>-0.6442678406092917</v>
       </c>
       <c r="C29">
-        <v>0.2742684479950075</v>
+        <v>-1.609734231452109</v>
       </c>
       <c r="D29">
-        <v>1.29209972354587</v>
+        <v>-0.0393078981293149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-1.38054119330796</v>
+        <v>-1.160192924109849</v>
       </c>
       <c r="C30">
-        <v>-1.964673767628389</v>
+        <v>-2.322280864725534</v>
       </c>
       <c r="D30">
-        <v>-0.7920952033062534</v>
+        <v>-0.4597359972157156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -952,13 +952,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>3.772222843568263</v>
+        <v>2.823720616068059</v>
       </c>
       <c r="C31">
-        <v>3.977623480620673</v>
+        <v>3.005289684338153</v>
       </c>
       <c r="D31">
-        <v>3.761440127573801</v>
+        <v>2.740584002128132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -966,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.7886384512518441</v>
+        <v>-1.2407814059752</v>
       </c>
       <c r="C32">
-        <v>-0.5939705738191359</v>
+        <v>-1.306337880171649</v>
       </c>
       <c r="D32">
-        <v>-1.047669595235146</v>
+        <v>-0.82959604888585</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -980,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>3.345219866802762</v>
+        <v>4.533327490718753</v>
       </c>
       <c r="C33">
-        <v>3.12990020824393</v>
+        <v>4.529856473438465</v>
       </c>
       <c r="D33">
-        <v>3.185519304260342</v>
+        <v>4.162128638834206</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -994,13 +994,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.75092860239514</v>
+        <v>0.9591985616192567</v>
       </c>
       <c r="C34">
-        <v>0.7874509413937192</v>
+        <v>0.9044485782223832</v>
       </c>
       <c r="D34">
-        <v>0.8673113099265883</v>
+        <v>1.138611863204808</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-3.862019559227681</v>
+        <v>-3.69951143527909</v>
       </c>
       <c r="C35">
-        <v>-4.38076384934033</v>
+        <v>-4.417865569851209</v>
       </c>
       <c r="D35">
-        <v>-3.415486292420811</v>
+        <v>-3.361833735265951</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.5562592046936099</v>
+        <v>-0.6316905999156575</v>
       </c>
       <c r="C36">
-        <v>-0.7286183081538611</v>
+        <v>-0.6325677812270891</v>
       </c>
       <c r="D36">
-        <v>-0.1476956401653573</v>
+        <v>-0.4993830640982688</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.496568086584849</v>
+        <v>1.585627784077492</v>
       </c>
       <c r="C37">
-        <v>0.9167454810393938</v>
+        <v>1.042125792083337</v>
       </c>
       <c r="D37">
-        <v>1.53808647421132</v>
+        <v>1.581365072037921</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.9136976607626912</v>
+        <v>-0.05087518435927807</v>
       </c>
       <c r="C38">
-        <v>-0.768518236791127</v>
+        <v>-0.07133622239148263</v>
       </c>
       <c r="D38">
-        <v>-0.8138690581783403</v>
+        <v>-0.2644178393039986</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>1.248024184833585</v>
+        <v>1.63323277816787</v>
       </c>
       <c r="C39">
-        <v>0.1545186317753355</v>
+        <v>0.4325696209018126</v>
       </c>
       <c r="D39">
-        <v>2.511851939729359</v>
+        <v>3.195395059240891</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-4.017626144471476</v>
+        <v>-6.28378380970156</v>
       </c>
       <c r="C40">
-        <v>-5.909743081623386</v>
+        <v>-7.687473980359316</v>
       </c>
       <c r="D40">
-        <v>-2.267833156827315</v>
+        <v>-4.919746977505124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>1.926638695525984</v>
+        <v>3.590188499241886</v>
       </c>
       <c r="C41">
-        <v>2.427099512606512</v>
+        <v>3.953834712674964</v>
       </c>
       <c r="D41">
-        <v>1.601344122619119</v>
+        <v>3.16948286299561</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.1734372677610674</v>
+        <v>0.9087170532626976</v>
       </c>
       <c r="C42">
-        <v>-0.3243939732994083</v>
+        <v>0.6260718339396787</v>
       </c>
       <c r="D42">
-        <v>0.4223749268822186</v>
+        <v>1.051429471701915</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.753514275560164</v>
+        <v>1.16291217672162</v>
       </c>
       <c r="C43">
-        <v>1.771127565080244</v>
+        <v>1.098464653416609</v>
       </c>
       <c r="D43">
-        <v>1.661746921284069</v>
+        <v>1.543633649918696</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-1.599901646300139</v>
+        <v>-1.72371027399717</v>
       </c>
       <c r="C44">
-        <v>-2.219509324441071</v>
+        <v>-2.011144372027796</v>
       </c>
       <c r="D44">
-        <v>-1.412721466042655</v>
+        <v>-1.289061845080519</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>1.874480473300477</v>
+        <v>0.3896631164433062</v>
       </c>
       <c r="C45">
-        <v>1.558328198276682</v>
+        <v>-0.01221781139092437</v>
       </c>
       <c r="D45">
-        <v>2.181166310189453</v>
+        <v>0.9435282594496108</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.7329246648703047</v>
+        <v>-0.1324991427333888</v>
       </c>
       <c r="C46">
-        <v>-0.6229061841911521</v>
+        <v>-0.2707727340876764</v>
       </c>
       <c r="D46">
-        <v>-2.757190316851899</v>
+        <v>-1.464298899515071</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.176056644922775</v>
+        <v>2.629936789152199</v>
       </c>
       <c r="C47">
-        <v>3.101468349363801</v>
+        <v>3.11443940504339</v>
       </c>
       <c r="D47">
-        <v>2.47806022435606</v>
+        <v>2.788547753175763</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4.635132631875094</v>
+        <v>4.472896761937761</v>
       </c>
       <c r="C2">
-        <v>4.335934828584942</v>
+        <v>4.290602614813643</v>
       </c>
       <c r="D2">
-        <v>4.17919835902647</v>
+        <v>3.988263785072865</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.054160904105887</v>
+        <v>5.312023412307476</v>
       </c>
       <c r="C3">
-        <v>5.693740330016772</v>
+        <v>5.914904704093327</v>
       </c>
       <c r="D3">
-        <v>5.107213181945558</v>
+        <v>5.486469705158004</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-3.568820585507038</v>
+        <v>-3.450849462422445</v>
       </c>
       <c r="C4">
-        <v>-3.969550452518689</v>
+        <v>-3.964400486358133</v>
       </c>
       <c r="D4">
-        <v>-2.770462735082901</v>
+        <v>-2.311353758034107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-2.570252499543546</v>
+        <v>-2.38686030193811</v>
       </c>
       <c r="C5">
-        <v>-3.083014689346153</v>
+        <v>-2.97360481075799</v>
       </c>
       <c r="D5">
-        <v>-1.753735549154023</v>
+        <v>-1.501605657516736</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.200517335599696</v>
+        <v>4.318326457308208</v>
       </c>
       <c r="C6">
-        <v>4.120175788415037</v>
+        <v>4.240856853882868</v>
       </c>
       <c r="D6">
-        <v>4.381879135584232</v>
+        <v>4.465184216059548</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6020887846591716</v>
+        <v>-0.2640873711342251</v>
       </c>
       <c r="C7">
-        <v>0.4235859293205468</v>
+        <v>-0.5101372792643888</v>
       </c>
       <c r="D7">
-        <v>0.08750216363506702</v>
+        <v>-0.4467281465948658</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.4718772582566699</v>
+        <v>-0.2519552134501613</v>
       </c>
       <c r="C8">
-        <v>-0.8989653981999246</v>
+        <v>-0.7147615763997694</v>
       </c>
       <c r="D8">
-        <v>-0.348651914604281</v>
+        <v>-0.07573341179915039</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.821484842960587</v>
+        <v>2.468940183886748</v>
       </c>
       <c r="C9">
-        <v>3.562320534213259</v>
+        <v>3.264128630825347</v>
       </c>
       <c r="D9">
-        <v>0.1414127683541988</v>
+        <v>-0.1238082974874821</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +658,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.04890157965436</v>
+        <v>0.857783871551665</v>
       </c>
       <c r="C10">
-        <v>0.567550776861081</v>
+        <v>0.5969490215995688</v>
       </c>
       <c r="D10">
-        <v>1.599234927860516</v>
+        <v>1.100364296221379</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.2048502955111</v>
+        <v>6.776534233049381</v>
       </c>
       <c r="C11">
-        <v>7.408050233456764</v>
+        <v>6.983206569188494</v>
       </c>
       <c r="D11">
-        <v>6.315749709125562</v>
+        <v>5.934737110433574</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-2.584741815072955</v>
+        <v>-2.156046856185889</v>
       </c>
       <c r="C12">
-        <v>-3.848557356198368</v>
+        <v>-3.449917855021667</v>
       </c>
       <c r="D12">
-        <v>-1.587665945184724</v>
+        <v>-1.223354068547622</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.6515119014858683</v>
+        <v>-0.7962362656917299</v>
       </c>
       <c r="C13">
-        <v>-0.6553078043868843</v>
+        <v>-0.8212142145219925</v>
       </c>
       <c r="D13">
-        <v>-0.9355248786604542</v>
+        <v>-0.8553506249967313</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>4.206079923188311</v>
+        <v>4.318492678786345</v>
       </c>
       <c r="C14">
-        <v>3.990244587425984</v>
+        <v>3.910506315972051</v>
       </c>
       <c r="D14">
-        <v>4.305752187063439</v>
+        <v>4.851065032478497</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.51934855731175</v>
+        <v>1.311386944853665</v>
       </c>
       <c r="C15">
-        <v>1.069933011212632</v>
+        <v>0.7373210804966002</v>
       </c>
       <c r="D15">
-        <v>1.975395266964108</v>
+        <v>1.891384527709628</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +742,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-5.203823489405679</v>
+        <v>-5.196486307805303</v>
       </c>
       <c r="C16">
-        <v>-6.109975542813483</v>
+        <v>-6.073223485015533</v>
       </c>
       <c r="D16">
-        <v>-4.179487269503268</v>
+        <v>-4.211142061197792</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -756,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-3.047706544217965</v>
+        <v>-2.908314502821696</v>
       </c>
       <c r="C17">
-        <v>-3.509577807106434</v>
+        <v>-3.397531859117275</v>
       </c>
       <c r="D17">
-        <v>-2.17185047697297</v>
+        <v>-1.996471427526203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.522804409288425</v>
+        <v>1.086754581863847</v>
       </c>
       <c r="C18">
-        <v>1.133282772054423</v>
+        <v>0.7756602683695046</v>
       </c>
       <c r="D18">
-        <v>1.365052239759579</v>
+        <v>0.9084530648666655</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-2.929006397291034</v>
+        <v>-2.187864562208008</v>
       </c>
       <c r="C19">
-        <v>-4.026341895194941</v>
+        <v>-3.37906655081992</v>
       </c>
       <c r="D19">
-        <v>-1.934739655948281</v>
+        <v>-1.345753251791892</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -798,13 +798,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2.609424146963812</v>
+        <v>5.476881484975626</v>
       </c>
       <c r="C20">
-        <v>2.109552731878228</v>
+        <v>3.824098629875161</v>
       </c>
       <c r="D20">
-        <v>2.593818589935837</v>
+        <v>6.596020882791875</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>8.477674551863256</v>
+        <v>8.403367699130705</v>
       </c>
       <c r="C21">
-        <v>8.917437506332405</v>
+        <v>8.818818588694199</v>
       </c>
       <c r="D21">
-        <v>5.60635364847073</v>
+        <v>5.616887381794111</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2.102125582893288</v>
+        <v>1.527362833117696</v>
       </c>
       <c r="C22">
-        <v>2.092367102795301</v>
+        <v>1.456484301990435</v>
       </c>
       <c r="D22">
-        <v>3.002165087179631</v>
+        <v>2.436216347850584</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3.105995840422304</v>
+        <v>3.394212680000641</v>
       </c>
       <c r="C23">
-        <v>3.947900034067331</v>
+        <v>4.028421935589566</v>
       </c>
       <c r="D23">
-        <v>2.261389946593351</v>
+        <v>2.721115282151931</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3.382767979920231</v>
+        <v>3.129896369087781</v>
       </c>
       <c r="C24">
-        <v>5.322952535423919</v>
+        <v>4.755941185001111</v>
       </c>
       <c r="D24">
-        <v>3.093510138869027</v>
+        <v>3.094778570282286</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -868,13 +868,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-5.398595138072759</v>
+        <v>-5.827417498011322</v>
       </c>
       <c r="C25">
-        <v>-6.323372414088535</v>
+        <v>-6.588396577866384</v>
       </c>
       <c r="D25">
-        <v>-5.100920827868782</v>
+        <v>-5.588816250065776</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -882,13 +882,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2432470089226424</v>
+        <v>0.4275395790439562</v>
       </c>
       <c r="C26">
-        <v>0.1069797434766429</v>
+        <v>0.3516254548364017</v>
       </c>
       <c r="D26">
-        <v>0.02798763428759621</v>
+        <v>0.1712368948600718</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6642445725263624</v>
+        <v>0.4184439901895765</v>
       </c>
       <c r="C27">
-        <v>0.5971318606841747</v>
+        <v>0.2342707528365739</v>
       </c>
       <c r="D27">
-        <v>0.4374204688474714</v>
+        <v>0.2412167806945753</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-3.976196493969686</v>
+        <v>-2.125231653094994</v>
       </c>
       <c r="C28">
-        <v>-4.912471436776745</v>
+        <v>-3.394517952729104</v>
       </c>
       <c r="D28">
-        <v>-3.023461082951129</v>
+        <v>-1.003567679771733</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -924,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.6442678406092917</v>
+        <v>-0.1174473824313571</v>
       </c>
       <c r="C29">
-        <v>-1.609734231452109</v>
+        <v>-1.255478076154914</v>
       </c>
       <c r="D29">
-        <v>-0.0393078981293149</v>
+        <v>0.6059199553889449</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-1.160192924109849</v>
+        <v>-2.272865326126416</v>
       </c>
       <c r="C30">
-        <v>-2.322280864725534</v>
+        <v>-3.606636556440612</v>
       </c>
       <c r="D30">
-        <v>-0.4597359972157156</v>
+        <v>-1.415281460558326</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -952,13 +952,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2.823720616068059</v>
+        <v>3.048809363585936</v>
       </c>
       <c r="C31">
-        <v>3.005289684338153</v>
+        <v>3.239021718619384</v>
       </c>
       <c r="D31">
-        <v>2.740584002128132</v>
+        <v>2.909228282408516</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -966,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-1.2407814059752</v>
+        <v>-1.02424007115508</v>
       </c>
       <c r="C32">
-        <v>-1.306337880171649</v>
+        <v>-1.066469244745949</v>
       </c>
       <c r="D32">
-        <v>-0.82959604888585</v>
+        <v>-0.708310933036449</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -980,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>4.533327490718753</v>
+        <v>4.046057706975015</v>
       </c>
       <c r="C33">
-        <v>4.529856473438465</v>
+        <v>3.962316471525207</v>
       </c>
       <c r="D33">
-        <v>4.162128638834206</v>
+        <v>3.819896200811534</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -994,13 +994,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.9591985616192567</v>
+        <v>0.8097417447231026</v>
       </c>
       <c r="C34">
-        <v>0.9044485782223832</v>
+        <v>0.9004535105968881</v>
       </c>
       <c r="D34">
-        <v>1.138611863204808</v>
+        <v>0.9897048541602782</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-3.69951143527909</v>
+        <v>-3.860280421550566</v>
       </c>
       <c r="C35">
-        <v>-4.417865569851209</v>
+        <v>-4.567079302621357</v>
       </c>
       <c r="D35">
-        <v>-3.361833735265951</v>
+        <v>-3.6437759313662</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.6316905999156575</v>
+        <v>-1.00127353808509</v>
       </c>
       <c r="C36">
-        <v>-0.6325677812270891</v>
+        <v>-1.130723561074354</v>
       </c>
       <c r="D36">
-        <v>-0.4993830640982688</v>
+        <v>-0.5429181849898601</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.585627784077492</v>
+        <v>0.9511372943716623</v>
       </c>
       <c r="C37">
-        <v>1.042125792083337</v>
+        <v>0.3680211605266992</v>
       </c>
       <c r="D37">
-        <v>1.581365072037921</v>
+        <v>1.059042105242969</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.05087518435927807</v>
+        <v>0.1892227003700064</v>
       </c>
       <c r="C38">
-        <v>-0.07133622239148263</v>
+        <v>0.3105331208017592</v>
       </c>
       <c r="D38">
-        <v>-0.2644178393039986</v>
+        <v>0.01961345048688834</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>1.63323277816787</v>
+        <v>0.0512849282471084</v>
       </c>
       <c r="C39">
-        <v>0.4325696209018126</v>
+        <v>-1.302754963464248</v>
       </c>
       <c r="D39">
-        <v>3.195395059240891</v>
+        <v>1.156902518075142</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-6.28378380970156</v>
+        <v>-5.115841136401222</v>
       </c>
       <c r="C40">
-        <v>-7.687473980359316</v>
+        <v>-7.060890940027875</v>
       </c>
       <c r="D40">
-        <v>-4.919746977505124</v>
+        <v>-3.40188665476181</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3.590188499241886</v>
+        <v>2.991353594476398</v>
       </c>
       <c r="C41">
-        <v>3.953834712674964</v>
+        <v>3.400043804774078</v>
       </c>
       <c r="D41">
-        <v>3.16948286299561</v>
+        <v>2.644590711507222</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.9087170532626976</v>
+        <v>0.4402064814066575</v>
       </c>
       <c r="C42">
-        <v>0.6260718339396787</v>
+        <v>0.1494523601224707</v>
       </c>
       <c r="D42">
-        <v>1.051429471701915</v>
+        <v>0.5659655799810537</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.16291217672162</v>
+        <v>1.125026172548504</v>
       </c>
       <c r="C43">
-        <v>1.098464653416609</v>
+        <v>1.05112285198703</v>
       </c>
       <c r="D43">
-        <v>1.543633649918696</v>
+        <v>1.532221591197969</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-1.72371027399717</v>
+        <v>-1.965441297374548</v>
       </c>
       <c r="C44">
-        <v>-2.011144372027796</v>
+        <v>-2.205865783562</v>
       </c>
       <c r="D44">
-        <v>-1.289061845080519</v>
+        <v>-1.580144908459735</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3896631164433062</v>
+        <v>0.4193068104210163</v>
       </c>
       <c r="C45">
-        <v>-0.01221781139092437</v>
+        <v>0.2056795787854782</v>
       </c>
       <c r="D45">
-        <v>0.9435282594496108</v>
+        <v>0.9691443427894297</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.1324991427333888</v>
+        <v>0.001884280765307444</v>
       </c>
       <c r="C46">
-        <v>-0.2707727340876764</v>
+        <v>-0.140152679311234</v>
       </c>
       <c r="D46">
-        <v>-1.464298899515071</v>
+        <v>-1.376145700998321</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.629936789152199</v>
+        <v>2.647068962168442</v>
       </c>
       <c r="C47">
-        <v>3.11443940504339</v>
+        <v>3.204187101408507</v>
       </c>
       <c r="D47">
-        <v>2.788547753175763</v>
+        <v>2.7537638624064</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4.472896761937761</v>
+        <v>4.635132631875094</v>
       </c>
       <c r="C2">
-        <v>4.290602614813643</v>
+        <v>4.335934828584942</v>
       </c>
       <c r="D2">
-        <v>3.988263785072865</v>
+        <v>4.17919835902647</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.312023412307476</v>
+        <v>5.054160904105887</v>
       </c>
       <c r="C3">
-        <v>5.914904704093327</v>
+        <v>5.693740330016772</v>
       </c>
       <c r="D3">
-        <v>5.486469705158004</v>
+        <v>5.107213181945558</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-3.450849462422445</v>
+        <v>-3.568820585507038</v>
       </c>
       <c r="C4">
-        <v>-3.964400486358133</v>
+        <v>-3.969550452518689</v>
       </c>
       <c r="D4">
-        <v>-2.311353758034107</v>
+        <v>-2.770462735082901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-2.38686030193811</v>
+        <v>-2.570252499543546</v>
       </c>
       <c r="C5">
-        <v>-2.97360481075799</v>
+        <v>-3.083014689346153</v>
       </c>
       <c r="D5">
-        <v>-1.501605657516736</v>
+        <v>-1.753735549154023</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.318326457308208</v>
+        <v>4.200517335599696</v>
       </c>
       <c r="C6">
-        <v>4.240856853882868</v>
+        <v>4.120175788415037</v>
       </c>
       <c r="D6">
-        <v>4.465184216059548</v>
+        <v>4.381879135584232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.2640873711342251</v>
+        <v>0.6020887846591716</v>
       </c>
       <c r="C7">
-        <v>-0.5101372792643888</v>
+        <v>0.4235859293205468</v>
       </c>
       <c r="D7">
-        <v>-0.4467281465948658</v>
+        <v>0.08750216363506702</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.2519552134501613</v>
+        <v>-0.4718772582566699</v>
       </c>
       <c r="C8">
-        <v>-0.7147615763997694</v>
+        <v>-0.8989653981999246</v>
       </c>
       <c r="D8">
-        <v>-0.07573341179915039</v>
+        <v>-0.348651914604281</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.468940183886748</v>
+        <v>2.821484842960587</v>
       </c>
       <c r="C9">
-        <v>3.264128630825347</v>
+        <v>3.562320534213259</v>
       </c>
       <c r="D9">
-        <v>-0.1238082974874821</v>
+        <v>0.1414127683541988</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +658,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.857783871551665</v>
+        <v>1.04890157965436</v>
       </c>
       <c r="C10">
-        <v>0.5969490215995688</v>
+        <v>0.567550776861081</v>
       </c>
       <c r="D10">
-        <v>1.100364296221379</v>
+        <v>1.599234927860516</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.776534233049381</v>
+        <v>7.2048502955111</v>
       </c>
       <c r="C11">
-        <v>6.983206569188494</v>
+        <v>7.408050233456764</v>
       </c>
       <c r="D11">
-        <v>5.934737110433574</v>
+        <v>6.315749709125562</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-2.156046856185889</v>
+        <v>-2.584741815072955</v>
       </c>
       <c r="C12">
-        <v>-3.449917855021667</v>
+        <v>-3.848557356198368</v>
       </c>
       <c r="D12">
-        <v>-1.223354068547622</v>
+        <v>-1.587665945184724</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.7962362656917299</v>
+        <v>-0.6515119014858683</v>
       </c>
       <c r="C13">
-        <v>-0.8212142145219925</v>
+        <v>-0.6553078043868843</v>
       </c>
       <c r="D13">
-        <v>-0.8553506249967313</v>
+        <v>-0.9355248786604542</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>4.318492678786345</v>
+        <v>4.206079923188311</v>
       </c>
       <c r="C14">
-        <v>3.910506315972051</v>
+        <v>3.990244587425984</v>
       </c>
       <c r="D14">
-        <v>4.851065032478497</v>
+        <v>4.305752187063439</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.311386944853665</v>
+        <v>1.51934855731175</v>
       </c>
       <c r="C15">
-        <v>0.7373210804966002</v>
+        <v>1.069933011212632</v>
       </c>
       <c r="D15">
-        <v>1.891384527709628</v>
+        <v>1.975395266964108</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +742,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-5.196486307805303</v>
+        <v>-5.203823489405679</v>
       </c>
       <c r="C16">
-        <v>-6.073223485015533</v>
+        <v>-6.109975542813483</v>
       </c>
       <c r="D16">
-        <v>-4.211142061197792</v>
+        <v>-4.179487269503268</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -756,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-2.908314502821696</v>
+        <v>-3.047706544217965</v>
       </c>
       <c r="C17">
-        <v>-3.397531859117275</v>
+        <v>-3.509577807106434</v>
       </c>
       <c r="D17">
-        <v>-1.996471427526203</v>
+        <v>-2.17185047697297</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.086754581863847</v>
+        <v>1.522804409288425</v>
       </c>
       <c r="C18">
-        <v>0.7756602683695046</v>
+        <v>1.133282772054423</v>
       </c>
       <c r="D18">
-        <v>0.9084530648666655</v>
+        <v>1.365052239759579</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-2.187864562208008</v>
+        <v>-2.929006397291034</v>
       </c>
       <c r="C19">
-        <v>-3.37906655081992</v>
+        <v>-4.026341895194941</v>
       </c>
       <c r="D19">
-        <v>-1.345753251791892</v>
+        <v>-1.934739655948281</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -798,13 +798,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>5.476881484975626</v>
+        <v>2.609424146963812</v>
       </c>
       <c r="C20">
-        <v>3.824098629875161</v>
+        <v>2.109552731878228</v>
       </c>
       <c r="D20">
-        <v>6.596020882791875</v>
+        <v>2.593818589935837</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>8.403367699130705</v>
+        <v>8.477674551863256</v>
       </c>
       <c r="C21">
-        <v>8.818818588694199</v>
+        <v>8.917437506332405</v>
       </c>
       <c r="D21">
-        <v>5.616887381794111</v>
+        <v>5.60635364847073</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>1.527362833117696</v>
+        <v>2.102125582893288</v>
       </c>
       <c r="C22">
-        <v>1.456484301990435</v>
+        <v>2.092367102795301</v>
       </c>
       <c r="D22">
-        <v>2.436216347850584</v>
+        <v>3.002165087179631</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3.394212680000641</v>
+        <v>3.105995840422304</v>
       </c>
       <c r="C23">
-        <v>4.028421935589566</v>
+        <v>3.947900034067331</v>
       </c>
       <c r="D23">
-        <v>2.721115282151931</v>
+        <v>2.261389946593351</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3.129896369087781</v>
+        <v>3.382767979920231</v>
       </c>
       <c r="C24">
-        <v>4.755941185001111</v>
+        <v>5.322952535423919</v>
       </c>
       <c r="D24">
-        <v>3.094778570282286</v>
+        <v>3.093510138869027</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -868,13 +868,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-5.827417498011322</v>
+        <v>-5.398595138072759</v>
       </c>
       <c r="C25">
-        <v>-6.588396577866384</v>
+        <v>-6.323372414088535</v>
       </c>
       <c r="D25">
-        <v>-5.588816250065776</v>
+        <v>-5.100920827868782</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -882,13 +882,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4275395790439562</v>
+        <v>0.2432470089226424</v>
       </c>
       <c r="C26">
-        <v>0.3516254548364017</v>
+        <v>0.1069797434766429</v>
       </c>
       <c r="D26">
-        <v>0.1712368948600718</v>
+        <v>0.02798763428759621</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4184439901895765</v>
+        <v>0.6642445725263624</v>
       </c>
       <c r="C27">
-        <v>0.2342707528365739</v>
+        <v>0.5971318606841747</v>
       </c>
       <c r="D27">
-        <v>0.2412167806945753</v>
+        <v>0.4374204688474714</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-2.125231653094994</v>
+        <v>-3.976196493969686</v>
       </c>
       <c r="C28">
-        <v>-3.394517952729104</v>
+        <v>-4.912471436776745</v>
       </c>
       <c r="D28">
-        <v>-1.003567679771733</v>
+        <v>-3.023461082951129</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -924,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.1174473824313571</v>
+        <v>-0.6442678406092917</v>
       </c>
       <c r="C29">
-        <v>-1.255478076154914</v>
+        <v>-1.609734231452109</v>
       </c>
       <c r="D29">
-        <v>0.6059199553889449</v>
+        <v>-0.0393078981293149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-2.272865326126416</v>
+        <v>-1.160192924109849</v>
       </c>
       <c r="C30">
-        <v>-3.606636556440612</v>
+        <v>-2.322280864725534</v>
       </c>
       <c r="D30">
-        <v>-1.415281460558326</v>
+        <v>-0.4597359972157156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -952,13 +952,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>3.048809363585936</v>
+        <v>2.823720616068059</v>
       </c>
       <c r="C31">
-        <v>3.239021718619384</v>
+        <v>3.005289684338153</v>
       </c>
       <c r="D31">
-        <v>2.909228282408516</v>
+        <v>2.740584002128132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -966,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-1.02424007115508</v>
+        <v>-1.2407814059752</v>
       </c>
       <c r="C32">
-        <v>-1.066469244745949</v>
+        <v>-1.306337880171649</v>
       </c>
       <c r="D32">
-        <v>-0.708310933036449</v>
+        <v>-0.82959604888585</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -980,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>4.046057706975015</v>
+        <v>4.533327490718753</v>
       </c>
       <c r="C33">
-        <v>3.962316471525207</v>
+        <v>4.529856473438465</v>
       </c>
       <c r="D33">
-        <v>3.819896200811534</v>
+        <v>4.162128638834206</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -994,13 +994,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.8097417447231026</v>
+        <v>0.9591985616192567</v>
       </c>
       <c r="C34">
-        <v>0.9004535105968881</v>
+        <v>0.9044485782223832</v>
       </c>
       <c r="D34">
-        <v>0.9897048541602782</v>
+        <v>1.138611863204808</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-3.860280421550566</v>
+        <v>-3.69951143527909</v>
       </c>
       <c r="C35">
-        <v>-4.567079302621357</v>
+        <v>-4.417865569851209</v>
       </c>
       <c r="D35">
-        <v>-3.6437759313662</v>
+        <v>-3.361833735265951</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-1.00127353808509</v>
+        <v>-0.6316905999156575</v>
       </c>
       <c r="C36">
-        <v>-1.130723561074354</v>
+        <v>-0.6325677812270891</v>
       </c>
       <c r="D36">
-        <v>-0.5429181849898601</v>
+        <v>-0.4993830640982688</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.9511372943716623</v>
+        <v>1.585627784077492</v>
       </c>
       <c r="C37">
-        <v>0.3680211605266992</v>
+        <v>1.042125792083337</v>
       </c>
       <c r="D37">
-        <v>1.059042105242969</v>
+        <v>1.581365072037921</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.1892227003700064</v>
+        <v>-0.05087518435927807</v>
       </c>
       <c r="C38">
-        <v>0.3105331208017592</v>
+        <v>-0.07133622239148263</v>
       </c>
       <c r="D38">
-        <v>0.01961345048688834</v>
+        <v>-0.2644178393039986</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.0512849282471084</v>
+        <v>1.63323277816787</v>
       </c>
       <c r="C39">
-        <v>-1.302754963464248</v>
+        <v>0.4325696209018126</v>
       </c>
       <c r="D39">
-        <v>1.156902518075142</v>
+        <v>3.195395059240891</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-5.115841136401222</v>
+        <v>-6.28378380970156</v>
       </c>
       <c r="C40">
-        <v>-7.060890940027875</v>
+        <v>-7.687473980359316</v>
       </c>
       <c r="D40">
-        <v>-3.40188665476181</v>
+        <v>-4.919746977505124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>2.991353594476398</v>
+        <v>3.590188499241886</v>
       </c>
       <c r="C41">
-        <v>3.400043804774078</v>
+        <v>3.953834712674964</v>
       </c>
       <c r="D41">
-        <v>2.644590711507222</v>
+        <v>3.16948286299561</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4402064814066575</v>
+        <v>0.9087170532626976</v>
       </c>
       <c r="C42">
-        <v>0.1494523601224707</v>
+        <v>0.6260718339396787</v>
       </c>
       <c r="D42">
-        <v>0.5659655799810537</v>
+        <v>1.051429471701915</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.125026172548504</v>
+        <v>1.16291217672162</v>
       </c>
       <c r="C43">
-        <v>1.05112285198703</v>
+        <v>1.098464653416609</v>
       </c>
       <c r="D43">
-        <v>1.532221591197969</v>
+        <v>1.543633649918696</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-1.965441297374548</v>
+        <v>-1.72371027399717</v>
       </c>
       <c r="C44">
-        <v>-2.205865783562</v>
+        <v>-2.011144372027796</v>
       </c>
       <c r="D44">
-        <v>-1.580144908459735</v>
+        <v>-1.289061845080519</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4193068104210163</v>
+        <v>0.3896631164433062</v>
       </c>
       <c r="C45">
-        <v>0.2056795787854782</v>
+        <v>-0.01221781139092437</v>
       </c>
       <c r="D45">
-        <v>0.9691443427894297</v>
+        <v>0.9435282594496108</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.001884280765307444</v>
+        <v>-0.1324991427333888</v>
       </c>
       <c r="C46">
-        <v>-0.140152679311234</v>
+        <v>-0.2707727340876764</v>
       </c>
       <c r="D46">
-        <v>-1.376145700998321</v>
+        <v>-1.464298899515071</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.647068962168442</v>
+        <v>2.629936789152199</v>
       </c>
       <c r="C47">
-        <v>3.204187101408507</v>
+        <v>3.11443940504339</v>
       </c>
       <c r="D47">
-        <v>2.7537638624064</v>
+        <v>2.788547753175763</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4.635132631875094</v>
+        <v>4.441013944548655</v>
       </c>
       <c r="C2">
-        <v>4.335934828584942</v>
+        <v>4.243755326654508</v>
       </c>
       <c r="D2">
-        <v>4.17919835902647</v>
+        <v>4.0461185917956</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.054160904105887</v>
+        <v>5.240929280885998</v>
       </c>
       <c r="C3">
-        <v>5.693740330016772</v>
+        <v>5.880323657997932</v>
       </c>
       <c r="D3">
-        <v>5.107213181945558</v>
+        <v>5.277394773642241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-3.568820585507038</v>
+        <v>-2.725063788366766</v>
       </c>
       <c r="C4">
-        <v>-3.969550452518689</v>
+        <v>-3.103634786344878</v>
       </c>
       <c r="D4">
-        <v>-2.770462735082901</v>
+        <v>-1.715633108871761</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-2.570252499543546</v>
+        <v>-2.217175688970829</v>
       </c>
       <c r="C5">
-        <v>-3.083014689346153</v>
+        <v>-2.711621775135931</v>
       </c>
       <c r="D5">
-        <v>-1.753735549154023</v>
+        <v>-1.360956759322185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.200517335599696</v>
+        <v>4.42903248332096</v>
       </c>
       <c r="C6">
-        <v>4.120175788415037</v>
+        <v>4.377554535353823</v>
       </c>
       <c r="D6">
-        <v>4.381879135584232</v>
+        <v>4.597221287602116</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6020887846591716</v>
+        <v>0.8777153876477151</v>
       </c>
       <c r="C7">
-        <v>0.4235859293205468</v>
+        <v>0.8035047169657306</v>
       </c>
       <c r="D7">
-        <v>0.08750216363506702</v>
+        <v>0.5068585499757639</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.4718772582566699</v>
+        <v>-0.304233441385604</v>
       </c>
       <c r="C8">
-        <v>-0.8989653981999246</v>
+        <v>-0.7386265259202718</v>
       </c>
       <c r="D8">
-        <v>-0.348651914604281</v>
+        <v>-0.111992774713332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.821484842960587</v>
+        <v>2.601410364144208</v>
       </c>
       <c r="C9">
-        <v>3.562320534213259</v>
+        <v>3.241245621874644</v>
       </c>
       <c r="D9">
-        <v>0.1414127683541988</v>
+        <v>-0.1571434554534012</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +658,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.04890157965436</v>
+        <v>1.822484829121862</v>
       </c>
       <c r="C10">
-        <v>0.567550776861081</v>
+        <v>1.785570022136129</v>
       </c>
       <c r="D10">
-        <v>1.599234927860516</v>
+        <v>2.108356255198718</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.2048502955111</v>
+        <v>7.360419694725961</v>
       </c>
       <c r="C11">
-        <v>7.408050233456764</v>
+        <v>7.589913638344226</v>
       </c>
       <c r="D11">
-        <v>6.315749709125562</v>
+        <v>6.529557154723631</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-2.584741815072955</v>
+        <v>-1.995651889169781</v>
       </c>
       <c r="C12">
-        <v>-3.848557356198368</v>
+        <v>-3.121487675925771</v>
       </c>
       <c r="D12">
-        <v>-1.587665945184724</v>
+        <v>-0.9554839361181955</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.6515119014858683</v>
+        <v>-0.3859500336429567</v>
       </c>
       <c r="C13">
-        <v>-0.6553078043868843</v>
+        <v>-0.4306716956244516</v>
       </c>
       <c r="D13">
-        <v>-0.9355248786604542</v>
+        <v>-0.619075039745598</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>4.206079923188311</v>
+        <v>3.577815107376292</v>
       </c>
       <c r="C14">
-        <v>3.990244587425984</v>
+        <v>3.819756122920759</v>
       </c>
       <c r="D14">
-        <v>4.305752187063439</v>
+        <v>3.837129963019414</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.51934855731175</v>
+        <v>1.478986978187757</v>
       </c>
       <c r="C15">
-        <v>1.069933011212632</v>
+        <v>0.9833608084145462</v>
       </c>
       <c r="D15">
-        <v>1.975395266964108</v>
+        <v>1.88474017905329</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +742,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-5.203823489405679</v>
+        <v>-5.280233392540234</v>
       </c>
       <c r="C16">
-        <v>-6.109975542813483</v>
+        <v>-6.253922227375897</v>
       </c>
       <c r="D16">
-        <v>-4.179487269503268</v>
+        <v>-4.289549617172028</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -756,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-3.047706544217965</v>
+        <v>-3.236063329417904</v>
       </c>
       <c r="C17">
-        <v>-3.509577807106434</v>
+        <v>-3.755734608706307</v>
       </c>
       <c r="D17">
-        <v>-2.17185047697297</v>
+        <v>-2.311436333000672</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.522804409288425</v>
+        <v>1.888631069708602</v>
       </c>
       <c r="C18">
-        <v>1.133282772054423</v>
+        <v>1.519113152503371</v>
       </c>
       <c r="D18">
-        <v>1.365052239759579</v>
+        <v>1.477921735029386</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-2.929006397291034</v>
+        <v>-2.512234846749739</v>
       </c>
       <c r="C19">
-        <v>-4.026341895194941</v>
+        <v>-3.473229101781561</v>
       </c>
       <c r="D19">
-        <v>-1.934739655948281</v>
+        <v>-1.659301130263535</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -798,13 +798,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2.609424146963812</v>
+        <v>2.548253562265668</v>
       </c>
       <c r="C20">
-        <v>2.109552731878228</v>
+        <v>1.618863837071971</v>
       </c>
       <c r="D20">
-        <v>2.593818589935837</v>
+        <v>3.216265391690021</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>8.477674551863256</v>
+        <v>8.65075056482465</v>
       </c>
       <c r="C21">
-        <v>8.917437506332405</v>
+        <v>9.119022580841275</v>
       </c>
       <c r="D21">
-        <v>5.60635364847073</v>
+        <v>5.724970615345071</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2.102125582893288</v>
+        <v>2.121241887010439</v>
       </c>
       <c r="C22">
-        <v>2.092367102795301</v>
+        <v>2.10946944930579</v>
       </c>
       <c r="D22">
-        <v>3.002165087179631</v>
+        <v>2.92098152328184</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3.105995840422304</v>
+        <v>3.42139445108538</v>
       </c>
       <c r="C23">
-        <v>3.947900034067331</v>
+        <v>4.516857306320432</v>
       </c>
       <c r="D23">
-        <v>2.261389946593351</v>
+        <v>2.885197560637565</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3.382767979920231</v>
+        <v>3.777839989154619</v>
       </c>
       <c r="C24">
-        <v>5.322952535423919</v>
+        <v>5.469616852351478</v>
       </c>
       <c r="D24">
-        <v>3.093510138869027</v>
+        <v>3.803052318304112</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -868,13 +868,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-5.398595138072759</v>
+        <v>-5.758653362565013</v>
       </c>
       <c r="C25">
-        <v>-6.323372414088535</v>
+        <v>-6.557726979931155</v>
       </c>
       <c r="D25">
-        <v>-5.100920827868782</v>
+        <v>-5.464193311967502</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -882,13 +882,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2432470089226424</v>
+        <v>-0.0003032614024900404</v>
       </c>
       <c r="C26">
-        <v>0.1069797434766429</v>
+        <v>-0.1036405715725941</v>
       </c>
       <c r="D26">
-        <v>0.02798763428759621</v>
+        <v>-0.2999703977286994</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6642445725263624</v>
+        <v>0.2158244858098346</v>
       </c>
       <c r="C27">
-        <v>0.5971318606841747</v>
+        <v>-0.1010995033150608</v>
       </c>
       <c r="D27">
-        <v>0.4374204688474714</v>
+        <v>-0.1065010805305411</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-3.976196493969686</v>
+        <v>-4.129320016471549</v>
       </c>
       <c r="C28">
-        <v>-4.912471436776745</v>
+        <v>-4.255144568485669</v>
       </c>
       <c r="D28">
-        <v>-3.023461082951129</v>
+        <v>-3.583675978077039</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -924,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.6442678406092917</v>
+        <v>-0.5778538173583758</v>
       </c>
       <c r="C29">
-        <v>-1.609734231452109</v>
+        <v>-1.752804335642089</v>
       </c>
       <c r="D29">
-        <v>-0.0393078981293149</v>
+        <v>0.2330745662279199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-1.160192924109849</v>
+        <v>-1.856214044541293</v>
       </c>
       <c r="C30">
-        <v>-2.322280864725534</v>
+        <v>-3.166891859695631</v>
       </c>
       <c r="D30">
-        <v>-0.4597359972157156</v>
+        <v>-0.5151708779142394</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -952,13 +952,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2.823720616068059</v>
+        <v>2.582571182913918</v>
       </c>
       <c r="C31">
-        <v>3.005289684338153</v>
+        <v>2.645600197262388</v>
       </c>
       <c r="D31">
-        <v>2.740584002128132</v>
+        <v>2.418809458734694</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -966,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-1.2407814059752</v>
+        <v>-1.355510043452823</v>
       </c>
       <c r="C32">
-        <v>-1.306337880171649</v>
+        <v>-1.458526500468138</v>
       </c>
       <c r="D32">
-        <v>-0.82959604888585</v>
+        <v>-0.9940956011157076</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -980,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>4.533327490718753</v>
+        <v>4.548677444723825</v>
       </c>
       <c r="C33">
-        <v>4.529856473438465</v>
+        <v>4.531868457038013</v>
       </c>
       <c r="D33">
-        <v>4.162128638834206</v>
+        <v>4.216954977758269</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -994,13 +994,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.9591985616192567</v>
+        <v>0.8131042606807304</v>
       </c>
       <c r="C34">
-        <v>0.9044485782223832</v>
+        <v>0.6903094820934763</v>
       </c>
       <c r="D34">
-        <v>1.138611863204808</v>
+        <v>0.941613162294952</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-3.69951143527909</v>
+        <v>-3.438739925808632</v>
       </c>
       <c r="C35">
-        <v>-4.417865569851209</v>
+        <v>-4.007707008169925</v>
       </c>
       <c r="D35">
-        <v>-3.361833735265951</v>
+        <v>-3.153855648301207</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.6316905999156575</v>
+        <v>-1.102985045556604</v>
       </c>
       <c r="C36">
-        <v>-0.6325677812270891</v>
+        <v>-1.045275489103159</v>
       </c>
       <c r="D36">
-        <v>-0.4993830640982688</v>
+        <v>-0.8308267320784934</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.585627784077492</v>
+        <v>1.972194444612296</v>
       </c>
       <c r="C37">
-        <v>1.042125792083337</v>
+        <v>1.290815119805644</v>
       </c>
       <c r="D37">
-        <v>1.581365072037921</v>
+        <v>2.007150180803996</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.05087518435927807</v>
+        <v>0.3001670323260708</v>
       </c>
       <c r="C38">
-        <v>-0.07133622239148263</v>
+        <v>0.3210197366157796</v>
       </c>
       <c r="D38">
-        <v>-0.2644178393039986</v>
+        <v>0.1308470935696526</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>1.63323277816787</v>
+        <v>0.4889256243858942</v>
       </c>
       <c r="C39">
-        <v>0.4325696209018126</v>
+        <v>-0.5432711225986764</v>
       </c>
       <c r="D39">
-        <v>3.195395059240891</v>
+        <v>1.861176396072906</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-6.28378380970156</v>
+        <v>-6.168413626768443</v>
       </c>
       <c r="C40">
-        <v>-7.687473980359316</v>
+        <v>-7.773514068818832</v>
       </c>
       <c r="D40">
-        <v>-4.919746977505124</v>
+        <v>-5.051295123742228</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3.590188499241886</v>
+        <v>3.730433724071491</v>
       </c>
       <c r="C41">
-        <v>3.953834712674964</v>
+        <v>4.369030467367496</v>
       </c>
       <c r="D41">
-        <v>3.16948286299561</v>
+        <v>3.338055994932687</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.9087170532626976</v>
+        <v>0.4009788100957756</v>
       </c>
       <c r="C42">
-        <v>0.6260718339396787</v>
+        <v>0.08392334641165178</v>
       </c>
       <c r="D42">
-        <v>1.051429471701915</v>
+        <v>0.4508530605287664</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1.16291217672162</v>
+        <v>0.7437954644635481</v>
       </c>
       <c r="C43">
-        <v>1.098464653416609</v>
+        <v>0.5584097796011323</v>
       </c>
       <c r="D43">
-        <v>1.543633649918696</v>
+        <v>1.028924164782619</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-1.72371027399717</v>
+        <v>-2.16894346647335</v>
       </c>
       <c r="C44">
-        <v>-2.011144372027796</v>
+        <v>-2.582968186353707</v>
       </c>
       <c r="D44">
-        <v>-1.289061845080519</v>
+        <v>-1.5924757610844</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3896631164433062</v>
+        <v>0.6412439470253606</v>
       </c>
       <c r="C45">
-        <v>-0.01221781139092437</v>
+        <v>0.2802871803012641</v>
       </c>
       <c r="D45">
-        <v>0.9435282594496108</v>
+        <v>1.242200377938518</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.1324991427333888</v>
+        <v>-0.07523806182938575</v>
       </c>
       <c r="C46">
-        <v>-0.2707727340876764</v>
+        <v>-0.2367983575227162</v>
       </c>
       <c r="D46">
-        <v>-1.464298899515071</v>
+        <v>-1.406138766867704</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.629936789152199</v>
+        <v>2.833532879629641</v>
       </c>
       <c r="C47">
-        <v>3.11443940504339</v>
+        <v>3.484913156251723</v>
       </c>
       <c r="D47">
-        <v>2.788547753175763</v>
+        <v>2.989276719398681</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4.441013944548655</v>
+        <v>4.496759984042153</v>
       </c>
       <c r="C2">
-        <v>4.243755326654508</v>
+        <v>4.198888601901318</v>
       </c>
       <c r="D2">
-        <v>4.0461185917956</v>
+        <v>4.080509354437067</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.240929280885998</v>
+        <v>5.426545557333395</v>
       </c>
       <c r="C3">
-        <v>5.880323657997932</v>
+        <v>5.8678996256323</v>
       </c>
       <c r="D3">
-        <v>5.277394773642241</v>
+        <v>5.718800444870986</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +574,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-2.725063788366766</v>
+        <v>-2.780077351736532</v>
       </c>
       <c r="C4">
-        <v>-3.103634786344878</v>
+        <v>-3.232364456083447</v>
       </c>
       <c r="D4">
-        <v>-1.715633108871761</v>
+        <v>-1.581543889725101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-2.217175688970829</v>
+        <v>-2.949046909389508</v>
       </c>
       <c r="C5">
-        <v>-2.711621775135931</v>
+        <v>-3.464495453779626</v>
       </c>
       <c r="D5">
-        <v>-1.360956759322185</v>
+        <v>-1.941657786589324</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.42903248332096</v>
+        <v>4.226073429543509</v>
       </c>
       <c r="C6">
-        <v>4.377554535353823</v>
+        <v>4.213347523941202</v>
       </c>
       <c r="D6">
-        <v>4.597221287602116</v>
+        <v>4.428431365702767</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.8777153876477151</v>
+        <v>0.4626164446735137</v>
       </c>
       <c r="C7">
-        <v>0.8035047169657306</v>
+        <v>-0.2550681124524834</v>
       </c>
       <c r="D7">
-        <v>0.5068585499757639</v>
+        <v>0.3411018604793536</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.304233441385604</v>
+        <v>-0.3815690553422679</v>
       </c>
       <c r="C8">
-        <v>-0.7386265259202718</v>
+        <v>-0.7688033049375376</v>
       </c>
       <c r="D8">
-        <v>-0.111992774713332</v>
+        <v>-0.1681006807354612</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +644,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.601410364144208</v>
+        <v>3.398051521202716</v>
       </c>
       <c r="C9">
-        <v>3.241245621874644</v>
+        <v>4.140290053979379</v>
       </c>
       <c r="D9">
-        <v>-0.1571434554534012</v>
+        <v>0.6899324444026522</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +658,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.822484829121862</v>
+        <v>1.850105436886285</v>
       </c>
       <c r="C10">
-        <v>1.785570022136129</v>
+        <v>1.813919739413938</v>
       </c>
       <c r="D10">
-        <v>2.108356255198718</v>
+        <v>1.873705548530924</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.360419694725961</v>
+        <v>7.49210004187546</v>
       </c>
       <c r="C11">
-        <v>7.589913638344226</v>
+        <v>7.727302950195303</v>
       </c>
       <c r="D11">
-        <v>6.529557154723631</v>
+        <v>6.737770965213863</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +686,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-1.995651889169781</v>
+        <v>-2.079651028340723</v>
       </c>
       <c r="C12">
-        <v>-3.121487675925771</v>
+        <v>-3.262846766632843</v>
       </c>
       <c r="D12">
-        <v>-0.9554839361181955</v>
+        <v>-0.8419239397314593</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.3859500336429567</v>
+        <v>-0.6496777464566228</v>
       </c>
       <c r="C13">
-        <v>-0.4306716956244516</v>
+        <v>-0.5944779969514036</v>
       </c>
       <c r="D13">
-        <v>-0.619075039745598</v>
+        <v>-0.6409738073367199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>3.577815107376292</v>
+        <v>3.643602269412538</v>
       </c>
       <c r="C14">
-        <v>3.819756122920759</v>
+        <v>2.839699003307206</v>
       </c>
       <c r="D14">
-        <v>3.837129963019414</v>
+        <v>4.180768414358527</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.478986978187757</v>
+        <v>1.06128986154348</v>
       </c>
       <c r="C15">
-        <v>0.9833608084145462</v>
+        <v>0.5605049520288397</v>
       </c>
       <c r="D15">
-        <v>1.88474017905329</v>
+        <v>1.918284240060375</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +742,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-5.280233392540234</v>
+        <v>-5.46442665787239</v>
       </c>
       <c r="C16">
-        <v>-6.253922227375897</v>
+        <v>-6.354816633386962</v>
       </c>
       <c r="D16">
-        <v>-4.289549617172028</v>
+        <v>-4.487063538308222</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -756,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-3.236063329417904</v>
+        <v>-3.256107553236354</v>
       </c>
       <c r="C17">
-        <v>-3.755734608706307</v>
+        <v>-3.72125905758488</v>
       </c>
       <c r="D17">
-        <v>-2.311436333000672</v>
+        <v>-2.300841858824976</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.888631069708602</v>
+        <v>0.1482496280591494</v>
       </c>
       <c r="C18">
-        <v>1.519113152503371</v>
+        <v>-0.1932210871175899</v>
       </c>
       <c r="D18">
-        <v>1.477921735029386</v>
+        <v>-0.2559361793069037</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-2.512234846749739</v>
+        <v>-3.233103716856367</v>
       </c>
       <c r="C19">
-        <v>-3.473229101781561</v>
+        <v>-4.390721782802565</v>
       </c>
       <c r="D19">
-        <v>-1.659301130263535</v>
+        <v>-2.164586775203958</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -798,13 +798,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2.548253562265668</v>
+        <v>5.088251026635171</v>
       </c>
       <c r="C20">
-        <v>1.618863837071971</v>
+        <v>3.937951978056908</v>
       </c>
       <c r="D20">
-        <v>3.216265391690021</v>
+        <v>5.993436346852987</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>8.65075056482465</v>
+        <v>8.577247308000956</v>
       </c>
       <c r="C21">
-        <v>9.119022580841275</v>
+        <v>9.034587215340384</v>
       </c>
       <c r="D21">
-        <v>5.724970615345071</v>
+        <v>5.647814649250127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2.121241887010439</v>
+        <v>1.736634908867773</v>
       </c>
       <c r="C22">
-        <v>2.10946944930579</v>
+        <v>1.717826412415357</v>
       </c>
       <c r="D22">
-        <v>2.92098152328184</v>
+        <v>2.412173907094406</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3.42139445108538</v>
+        <v>2.873936502380925</v>
       </c>
       <c r="C23">
-        <v>4.516857306320432</v>
+        <v>3.91757454039674</v>
       </c>
       <c r="D23">
-        <v>2.885197560637565</v>
+        <v>2.212680103491538</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3.777839989154619</v>
+        <v>2.889754734408889</v>
       </c>
       <c r="C24">
-        <v>5.469616852351478</v>
+        <v>4.31588495476718</v>
       </c>
       <c r="D24">
-        <v>3.803052318304112</v>
+        <v>2.981849920083812</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -868,13 +868,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-5.758653362565013</v>
+        <v>-6.189085285809249</v>
       </c>
       <c r="C25">
-        <v>-6.557726979931155</v>
+        <v>-7.19655284112457</v>
       </c>
       <c r="D25">
-        <v>-5.464193311967502</v>
+        <v>-5.731044708871414</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -882,13 +882,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.0003032614024900404</v>
+        <v>-0.01004310457615176</v>
       </c>
       <c r="C26">
-        <v>-0.1036405715725941</v>
+        <v>-0.07298826753073806</v>
       </c>
       <c r="D26">
-        <v>-0.2999703977286994</v>
+        <v>-0.1222832577716715</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2158244858098346</v>
+        <v>0.3634036878042313</v>
       </c>
       <c r="C27">
-        <v>-0.1010995033150608</v>
+        <v>0.1997182675727682</v>
       </c>
       <c r="D27">
-        <v>-0.1065010805305411</v>
+        <v>-0.02873145913346864</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-4.129320016471549</v>
+        <v>-3.931257346331785</v>
       </c>
       <c r="C28">
-        <v>-4.255144568485669</v>
+        <v>-5.191733529897546</v>
       </c>
       <c r="D28">
-        <v>-3.583675978077039</v>
+        <v>-2.551784652955225</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -924,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.5778538173583758</v>
+        <v>-0.9223998484439555</v>
       </c>
       <c r="C29">
-        <v>-1.752804335642089</v>
+        <v>-2.054483260968443</v>
       </c>
       <c r="D29">
-        <v>0.2330745662279199</v>
+        <v>-0.3044352724503652</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,13 +938,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-1.856214044541293</v>
+        <v>-2.347511090212417</v>
       </c>
       <c r="C30">
-        <v>-3.166891859695631</v>
+        <v>-3.674460529034018</v>
       </c>
       <c r="D30">
-        <v>-0.5151708779142394</v>
+        <v>-1.02487994751127</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -952,13 +952,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2.582571182913918</v>
+        <v>2.743557709929778</v>
       </c>
       <c r="C31">
-        <v>2.645600197262388</v>
+        <v>3.00193553779593</v>
       </c>
       <c r="D31">
-        <v>2.418809458734694</v>
+        <v>2.453023581936842</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -966,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-1.355510043452823</v>
+        <v>-1.314864717719244</v>
       </c>
       <c r="C32">
-        <v>-1.458526500468138</v>
+        <v>-1.372409507570604</v>
       </c>
       <c r="D32">
-        <v>-0.9940956011157076</v>
+        <v>-1.084107644834631</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -980,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>4.548677444723825</v>
+        <v>4.953805491202434</v>
       </c>
       <c r="C33">
-        <v>4.531868457038013</v>
+        <v>4.857843623663904</v>
       </c>
       <c r="D33">
-        <v>4.216954977758269</v>
+        <v>4.775398992058921</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -994,13 +994,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.8131042606807304</v>
+        <v>0.9507545170562404</v>
       </c>
       <c r="C34">
-        <v>0.6903094820934763</v>
+        <v>1.196343484373319</v>
       </c>
       <c r="D34">
-        <v>0.941613162294952</v>
+        <v>1.19571227091626</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-3.438739925808632</v>
+        <v>-3.915387946583038</v>
       </c>
       <c r="C35">
-        <v>-4.007707008169925</v>
+        <v>-4.592681112324215</v>
       </c>
       <c r="D35">
-        <v>-3.153855648301207</v>
+        <v>-3.54614424371581</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-1.102985045556604</v>
+        <v>0.04146741636057438</v>
       </c>
       <c r="C36">
-        <v>-1.045275489103159</v>
+        <v>0.1439102660367064</v>
       </c>
       <c r="D36">
-        <v>-0.8308267320784934</v>
+        <v>0.1976084751432738</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1.972194444612296</v>
+        <v>0.6425517067009334</v>
       </c>
       <c r="C37">
-        <v>1.290815119805644</v>
+        <v>-0.03157049795804445</v>
       </c>
       <c r="D37">
-        <v>2.007150180803996</v>
+        <v>0.5315992072280507</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3001670323260708</v>
+        <v>-0.08465536927001471</v>
       </c>
       <c r="C38">
-        <v>0.3210197366157796</v>
+        <v>-0.1047601685030153</v>
       </c>
       <c r="D38">
-        <v>0.1308470935696526</v>
+        <v>-0.1654661741528507</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4889256243858942</v>
+        <v>-0.5429720961911744</v>
       </c>
       <c r="C39">
-        <v>-0.5432711225986764</v>
+        <v>-1.451579705737083</v>
       </c>
       <c r="D39">
-        <v>1.861176396072906</v>
+        <v>0.523098257898913</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-6.168413626768443</v>
+        <v>-5.665746083857637</v>
       </c>
       <c r="C40">
-        <v>-7.773514068818832</v>
+        <v>-7.381706800723819</v>
       </c>
       <c r="D40">
-        <v>-5.051295123742228</v>
+        <v>-4.390047694138699</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3.730433724071491</v>
+        <v>3.79177473854091</v>
       </c>
       <c r="C41">
-        <v>4.369030467367496</v>
+        <v>4.58427852517973</v>
       </c>
       <c r="D41">
-        <v>3.338055994932687</v>
+        <v>3.461105546529142</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4009788100957756</v>
+        <v>0.7785433327984759</v>
       </c>
       <c r="C42">
-        <v>0.08392334641165178</v>
+        <v>0.4608661379496226</v>
       </c>
       <c r="D42">
-        <v>0.4508530605287664</v>
+        <v>0.7530718242237944</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.7437954644635481</v>
+        <v>1.315437658403495</v>
       </c>
       <c r="C43">
-        <v>0.5584097796011323</v>
+        <v>1.366545420768572</v>
       </c>
       <c r="D43">
-        <v>1.028924164782619</v>
+        <v>1.679672769140805</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-2.16894346647335</v>
+        <v>-1.614962083324634</v>
       </c>
       <c r="C44">
-        <v>-2.582968186353707</v>
+        <v>-1.935264914729096</v>
       </c>
       <c r="D44">
-        <v>-1.5924757610844</v>
+        <v>-1.263274213996668</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.6412439470253606</v>
+        <v>0.4675030422965465</v>
       </c>
       <c r="C45">
-        <v>0.2802871803012641</v>
+        <v>0.2896957552140922</v>
       </c>
       <c r="D45">
-        <v>1.242200377938518</v>
+        <v>1.096501119460047</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.07523806182938575</v>
+        <v>-0.2496453175728108</v>
       </c>
       <c r="C46">
-        <v>-0.2367983575227162</v>
+        <v>-0.4718878252810255</v>
       </c>
       <c r="D46">
-        <v>-1.406138766867704</v>
+        <v>-1.710331274025334</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2.833532879629641</v>
+        <v>2.578123769684448</v>
       </c>
       <c r="C47">
-        <v>3.484913156251723</v>
+        <v>3.145990400869803</v>
       </c>
       <c r="D47">
-        <v>2.989276719398681</v>
+        <v>2.715621358523457</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -549,10 +549,10 @@
         <v>4.496759984042153</v>
       </c>
       <c r="C2">
-        <v>4.198888601901318</v>
+        <v>0.5473019062485873</v>
       </c>
       <c r="D2">
-        <v>4.080509354437067</v>
+        <v>8.288602944482349</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -563,10 +563,10 @@
         <v>5.426545557333395</v>
       </c>
       <c r="C3">
-        <v>5.8678996256323</v>
+        <v>2.336538197474081</v>
       </c>
       <c r="D3">
-        <v>5.718800444870986</v>
+        <v>8.420925159145698</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -577,10 +577,10 @@
         <v>-2.780077351736532</v>
       </c>
       <c r="C4">
-        <v>-3.232364456083447</v>
+        <v>-5.831459815107165</v>
       </c>
       <c r="D4">
-        <v>-1.581543889725101</v>
+        <v>0.6234400863243339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -591,10 +591,10 @@
         <v>-2.949046909389508</v>
       </c>
       <c r="C5">
-        <v>-3.464495453779626</v>
+        <v>-5.636901255877069</v>
       </c>
       <c r="D5">
-        <v>-1.941657786589324</v>
+        <v>0.4363987909712375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -605,10 +605,10 @@
         <v>4.226073429543509</v>
       </c>
       <c r="C6">
-        <v>4.213347523941202</v>
+        <v>1.860057215531952</v>
       </c>
       <c r="D6">
-        <v>4.428431365702767</v>
+        <v>6.55452694385259</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -619,10 +619,10 @@
         <v>0.4626164446735137</v>
       </c>
       <c r="C7">
-        <v>-0.2550681124524834</v>
+        <v>-3.469059361761806</v>
       </c>
       <c r="D7">
-        <v>0.3411018604793536</v>
+        <v>4.044228171379527</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -633,10 +633,10 @@
         <v>-0.3815690553422679</v>
       </c>
       <c r="C8">
-        <v>-0.7688033049375376</v>
+        <v>-2.501748859922448</v>
       </c>
       <c r="D8">
-        <v>-0.1681006807354612</v>
+        <v>1.715977296859039</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -647,10 +647,10 @@
         <v>3.398051521202716</v>
       </c>
       <c r="C9">
-        <v>4.140290053979379</v>
+        <v>-1.026487832326983</v>
       </c>
       <c r="D9">
-        <v>0.6899324444026522</v>
+        <v>8.07446689491873</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -661,10 +661,10 @@
         <v>1.850105436886285</v>
       </c>
       <c r="C10">
-        <v>1.813919739413938</v>
+        <v>-1.891620692598783</v>
       </c>
       <c r="D10">
-        <v>1.873705548530924</v>
+        <v>4.678778177908094</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -675,10 +675,10 @@
         <v>7.49210004187546</v>
       </c>
       <c r="C11">
-        <v>7.727302950195303</v>
+        <v>4.697622100979482</v>
       </c>
       <c r="D11">
-        <v>6.737770965213863</v>
+        <v>10.23117127235673</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -689,10 +689,10 @@
         <v>-2.079651028340723</v>
       </c>
       <c r="C12">
-        <v>-3.262846766632843</v>
+        <v>-5.868388739426789</v>
       </c>
       <c r="D12">
-        <v>-0.8419239397314593</v>
+        <v>2.149573713386155</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -703,10 +703,10 @@
         <v>-0.6496777464566228</v>
       </c>
       <c r="C13">
-        <v>-0.5944779969514036</v>
+        <v>-3.397858862689174</v>
       </c>
       <c r="D13">
-        <v>-0.6409738073367199</v>
+        <v>2.202899183221585</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -717,10 +717,10 @@
         <v>3.643602269412538</v>
       </c>
       <c r="C14">
-        <v>2.839699003307206</v>
+        <v>-2.247565637251847</v>
       </c>
       <c r="D14">
-        <v>4.180768414358527</v>
+        <v>9.582552649439414</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -731,10 +731,10 @@
         <v>1.06128986154348</v>
       </c>
       <c r="C15">
-        <v>0.5605049520288397</v>
+        <v>-2.093849368727063</v>
       </c>
       <c r="D15">
-        <v>1.918284240060375</v>
+        <v>4.486396289097594</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -745,10 +745,10 @@
         <v>-5.46442665787239</v>
       </c>
       <c r="C16">
-        <v>-6.354816633386962</v>
+        <v>-8.206427647871639</v>
       </c>
       <c r="D16">
-        <v>-4.487063538308222</v>
+        <v>-2.388814416703777</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -759,10 +759,10 @@
         <v>-3.256107553236354</v>
       </c>
       <c r="C17">
-        <v>-3.72125905758488</v>
+        <v>-5.781331925614486</v>
       </c>
       <c r="D17">
-        <v>-2.300841858824976</v>
+        <v>-0.6737226720217704</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -773,10 +773,10 @@
         <v>0.1482496280591494</v>
       </c>
       <c r="C18">
-        <v>-0.1932210871175899</v>
+        <v>-4.875271439088824</v>
       </c>
       <c r="D18">
-        <v>-0.2559361793069037</v>
+        <v>5.673794054999504</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-3.233103716856367</v>
+        <v>-3.233103716856356</v>
       </c>
       <c r="C19">
-        <v>-4.390721782802565</v>
+        <v>-6.79272002661514</v>
       </c>
       <c r="D19">
-        <v>-2.164586775203958</v>
+        <v>0.354039452534427</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -801,10 +801,10 @@
         <v>5.088251026635171</v>
       </c>
       <c r="C20">
-        <v>3.937951978056908</v>
+        <v>-7.029876087379394</v>
       </c>
       <c r="D20">
-        <v>5.993436346852987</v>
+        <v>16.61525665687831</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -815,10 +815,10 @@
         <v>8.577247308000956</v>
       </c>
       <c r="C21">
-        <v>9.034587215340384</v>
+        <v>5.172767133968859</v>
       </c>
       <c r="D21">
-        <v>5.647814649250127</v>
+        <v>12.28708311906699</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -829,10 +829,10 @@
         <v>1.736634908867773</v>
       </c>
       <c r="C22">
-        <v>1.717826412415357</v>
+        <v>-3.629395256345935</v>
       </c>
       <c r="D22">
-        <v>2.412173907094406</v>
+        <v>5.193432380973029</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -843,10 +843,10 @@
         <v>2.873936502380925</v>
       </c>
       <c r="C23">
-        <v>3.91757454039674</v>
+        <v>-5.715341457707702</v>
       </c>
       <c r="D23">
-        <v>2.212680103491538</v>
+        <v>8.646068047429578</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>2.889754734408889</v>
+        <v>2.889754734408911</v>
       </c>
       <c r="C24">
-        <v>4.31588495476718</v>
+        <v>-1.626334856703671</v>
       </c>
       <c r="D24">
-        <v>2.981849920083812</v>
+        <v>7.042899899225441</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -871,10 +871,10 @@
         <v>-6.189085285809249</v>
       </c>
       <c r="C25">
-        <v>-7.19655284112457</v>
+        <v>-9.28758839008329</v>
       </c>
       <c r="D25">
-        <v>-5.731044708871414</v>
+        <v>-2.567162040239357</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -885,10 +885,10 @@
         <v>-0.01004310457615176</v>
       </c>
       <c r="C26">
-        <v>-0.07298826753073806</v>
+        <v>-1.995882370427571</v>
       </c>
       <c r="D26">
-        <v>-0.1222832577716715</v>
+        <v>2.172343226982432</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -899,10 +899,10 @@
         <v>0.3634036878042313</v>
       </c>
       <c r="C27">
-        <v>0.1997182675727682</v>
+        <v>-2.457443688369687</v>
       </c>
       <c r="D27">
-        <v>-0.02873145913346864</v>
+        <v>3.511402829487098</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -913,10 +913,10 @@
         <v>-3.931257346331785</v>
       </c>
       <c r="C28">
-        <v>-5.191733529897546</v>
+        <v>-9.540190186306319</v>
       </c>
       <c r="D28">
-        <v>-2.551784652955225</v>
+        <v>1.851338375843281</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -927,10 +927,10 @@
         <v>-0.9223998484439555</v>
       </c>
       <c r="C29">
-        <v>-2.054483260968443</v>
+        <v>-5.703349166695681</v>
       </c>
       <c r="D29">
-        <v>-0.3044352724503652</v>
+        <v>3.434529998689184</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -941,10 +941,10 @@
         <v>-2.347511090212417</v>
       </c>
       <c r="C30">
-        <v>-3.674460529034018</v>
+        <v>-7.883192160846653</v>
       </c>
       <c r="D30">
-        <v>-1.02487994751127</v>
+        <v>3.391976355012405</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -955,10 +955,10 @@
         <v>2.743557709929778</v>
       </c>
       <c r="C31">
-        <v>3.00193553779593</v>
+        <v>-0.132097697872835</v>
       </c>
       <c r="D31">
-        <v>2.453023581936842</v>
+        <v>5.791697719361966</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -969,10 +969,10 @@
         <v>-1.314864717719244</v>
       </c>
       <c r="C32">
-        <v>-1.372409507570604</v>
+        <v>-3.655847344489593</v>
       </c>
       <c r="D32">
-        <v>-1.084107644834631</v>
+        <v>0.9938410023416999</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -983,10 +983,10 @@
         <v>4.953805491202434</v>
       </c>
       <c r="C33">
-        <v>4.857843623663904</v>
+        <v>1.900217324304676</v>
       </c>
       <c r="D33">
-        <v>4.775398992058921</v>
+        <v>7.994627897889983</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -997,10 +997,10 @@
         <v>0.9507545170562404</v>
       </c>
       <c r="C34">
-        <v>1.196343484373319</v>
+        <v>-2.061375672485499</v>
       </c>
       <c r="D34">
-        <v>1.19571227091626</v>
+        <v>3.801018057852512</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>-3.915387946583038</v>
       </c>
       <c r="C35">
-        <v>-4.592681112324215</v>
+        <v>-6.472377563371811</v>
       </c>
       <c r="D35">
-        <v>-3.54614424371581</v>
+        <v>-1.362223302897791</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1025,10 +1025,10 @@
         <v>0.04146741636057438</v>
       </c>
       <c r="C36">
-        <v>0.1439102660367064</v>
+        <v>-3.42875879737371</v>
       </c>
       <c r="D36">
-        <v>0.1976084751432738</v>
+        <v>3.137309320630766</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1039,10 +1039,10 @@
         <v>0.6425517067009334</v>
       </c>
       <c r="C37">
-        <v>-0.03157049795804445</v>
+        <v>-2.991585692138232</v>
       </c>
       <c r="D37">
-        <v>0.5315992072280507</v>
+        <v>4.115610394396385</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1053,10 +1053,10 @@
         <v>-0.08465536927001471</v>
       </c>
       <c r="C38">
-        <v>-0.1047601685030153</v>
+        <v>-3.676000334441809</v>
       </c>
       <c r="D38">
-        <v>-0.1654661741528507</v>
+        <v>2.969678772021767</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1067,10 +1067,10 @@
         <v>-0.5429720961911744</v>
       </c>
       <c r="C39">
-        <v>-1.451579705737083</v>
+        <v>-5.06665337150568</v>
       </c>
       <c r="D39">
-        <v>0.523098257898913</v>
+        <v>3.949433207136255</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1081,10 +1081,10 @@
         <v>-5.665746083857637</v>
       </c>
       <c r="C40">
-        <v>-7.381706800723819</v>
+        <v>-10.8951310919454</v>
       </c>
       <c r="D40">
-        <v>-4.390047694138699</v>
+        <v>-0.3375281937973429</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>3.79177473854091</v>
       </c>
       <c r="C41">
-        <v>4.58427852517973</v>
+        <v>0.6901253132752361</v>
       </c>
       <c r="D41">
-        <v>3.461105546529142</v>
+        <v>6.589542588563235</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1109,10 +1109,10 @@
         <v>0.7785433327984759</v>
       </c>
       <c r="C42">
-        <v>0.4608661379496226</v>
+        <v>-1.721483162111392</v>
       </c>
       <c r="D42">
-        <v>0.7530718242237944</v>
+        <v>4.101776676959679</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1123,10 +1123,10 @@
         <v>1.315437658403495</v>
       </c>
       <c r="C43">
-        <v>1.366545420768572</v>
+        <v>-1.294177313495837</v>
       </c>
       <c r="D43">
-        <v>1.679672769140805</v>
+        <v>4.051273380556597</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>-1.614962083324634</v>
       </c>
       <c r="C44">
-        <v>-1.935264914729096</v>
+        <v>-4.323823421201311</v>
       </c>
       <c r="D44">
-        <v>-1.263274213996668</v>
+        <v>0.8249507386989263</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1151,10 +1151,10 @@
         <v>0.4675030422965465</v>
       </c>
       <c r="C45">
-        <v>0.2896957552140922</v>
+        <v>-4.7945702258127</v>
       </c>
       <c r="D45">
-        <v>1.096501119460047</v>
+        <v>4.664635848788401</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>-0.2496453175728108</v>
       </c>
       <c r="C46">
-        <v>-0.4718878252810255</v>
+        <v>-2.683594819994117</v>
       </c>
       <c r="D46">
-        <v>-1.710331274025334</v>
+        <v>3.359661780826251</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1179,10 +1179,10 @@
         <v>2.578123769684448</v>
       </c>
       <c r="C47">
-        <v>3.145990400869803</v>
+        <v>-0.2157515231801521</v>
       </c>
       <c r="D47">
-        <v>2.715621358523457</v>
+        <v>4.836737369774324</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Tracker</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t>region</t>
@@ -521,668 +515,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>4.496759984042153</v>
       </c>
-      <c r="C2">
-        <v>0.5473019062485873</v>
-      </c>
-      <c r="D2">
-        <v>8.288602944482349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5.426545557333395</v>
       </c>
-      <c r="C3">
-        <v>2.336538197474081</v>
-      </c>
-      <c r="D3">
-        <v>8.420925159145698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>-2.780077351736532</v>
       </c>
-      <c r="C4">
-        <v>-5.831459815107165</v>
-      </c>
-      <c r="D4">
-        <v>0.6234400863243339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>-2.949046909389508</v>
       </c>
-      <c r="C5">
-        <v>-5.636901255877069</v>
-      </c>
-      <c r="D5">
-        <v>0.4363987909712375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4.226073429543509</v>
       </c>
-      <c r="C6">
-        <v>1.860057215531952</v>
-      </c>
-      <c r="D6">
-        <v>6.55452694385259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.4626164446735137</v>
       </c>
-      <c r="C7">
-        <v>-3.469059361761806</v>
-      </c>
-      <c r="D7">
-        <v>4.044228171379527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>-0.3815690553422679</v>
       </c>
-      <c r="C8">
-        <v>-2.501748859922448</v>
-      </c>
-      <c r="D8">
-        <v>1.715977296859039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3.398051521202716</v>
       </c>
-      <c r="C9">
-        <v>-1.026487832326983</v>
-      </c>
-      <c r="D9">
-        <v>8.07446689491873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1.850105436886285</v>
       </c>
-      <c r="C10">
-        <v>-1.891620692598783</v>
-      </c>
-      <c r="D10">
-        <v>4.678778177908094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>7.49210004187546</v>
       </c>
-      <c r="C11">
-        <v>4.697622100979482</v>
-      </c>
-      <c r="D11">
-        <v>10.23117127235673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>-2.079651028340723</v>
       </c>
-      <c r="C12">
-        <v>-5.868388739426789</v>
-      </c>
-      <c r="D12">
-        <v>2.149573713386155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-0.6496777464566228</v>
       </c>
-      <c r="C13">
-        <v>-3.397858862689174</v>
-      </c>
-      <c r="D13">
-        <v>2.202899183221585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3.643602269412538</v>
       </c>
-      <c r="C14">
-        <v>-2.247565637251847</v>
-      </c>
-      <c r="D14">
-        <v>9.582552649439414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1.06128986154348</v>
       </c>
-      <c r="C15">
-        <v>-2.093849368727063</v>
-      </c>
-      <c r="D15">
-        <v>4.486396289097594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-5.46442665787239</v>
       </c>
-      <c r="C16">
-        <v>-8.206427647871639</v>
-      </c>
-      <c r="D16">
-        <v>-2.388814416703777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-3.256107553236354</v>
       </c>
-      <c r="C17">
-        <v>-5.781331925614486</v>
-      </c>
-      <c r="D17">
-        <v>-0.6737226720217704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.1482496280591494</v>
       </c>
-      <c r="C18">
-        <v>-4.875271439088824</v>
-      </c>
-      <c r="D18">
-        <v>5.673794054999504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-3.233103716856356</v>
       </c>
-      <c r="C19">
-        <v>-6.79272002661514</v>
-      </c>
-      <c r="D19">
-        <v>0.354039452534427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>5.088251026635171</v>
       </c>
-      <c r="C20">
-        <v>-7.029876087379394</v>
-      </c>
-      <c r="D20">
-        <v>16.61525665687831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>8.577247308000956</v>
       </c>
-      <c r="C21">
-        <v>5.172767133968859</v>
-      </c>
-      <c r="D21">
-        <v>12.28708311906699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1.736634908867773</v>
       </c>
-      <c r="C22">
-        <v>-3.629395256345935</v>
-      </c>
-      <c r="D22">
-        <v>5.193432380973029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2.873936502380925</v>
       </c>
-      <c r="C23">
-        <v>-5.715341457707702</v>
-      </c>
-      <c r="D23">
-        <v>8.646068047429578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2.889754734408911</v>
       </c>
-      <c r="C24">
-        <v>-1.626334856703671</v>
-      </c>
-      <c r="D24">
-        <v>7.042899899225441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-6.189085285809249</v>
       </c>
-      <c r="C25">
-        <v>-9.28758839008329</v>
-      </c>
-      <c r="D25">
-        <v>-2.567162040239357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>-0.01004310457615176</v>
       </c>
-      <c r="C26">
-        <v>-1.995882370427571</v>
-      </c>
-      <c r="D26">
-        <v>2.172343226982432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0.3634036878042313</v>
       </c>
-      <c r="C27">
-        <v>-2.457443688369687</v>
-      </c>
-      <c r="D27">
-        <v>3.511402829487098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-3.931257346331785</v>
       </c>
-      <c r="C28">
-        <v>-9.540190186306319</v>
-      </c>
-      <c r="D28">
-        <v>1.851338375843281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>-0.9223998484439555</v>
       </c>
-      <c r="C29">
-        <v>-5.703349166695681</v>
-      </c>
-      <c r="D29">
-        <v>3.434529998689184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>-2.347511090212417</v>
       </c>
-      <c r="C30">
-        <v>-7.883192160846653</v>
-      </c>
-      <c r="D30">
-        <v>3.391976355012405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>2.743557709929778</v>
       </c>
-      <c r="C31">
-        <v>-0.132097697872835</v>
-      </c>
-      <c r="D31">
-        <v>5.791697719361966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>-1.314864717719244</v>
       </c>
-      <c r="C32">
-        <v>-3.655847344489593</v>
-      </c>
-      <c r="D32">
-        <v>0.9938410023416999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>4.953805491202434</v>
       </c>
-      <c r="C33">
-        <v>1.900217324304676</v>
-      </c>
-      <c r="D33">
-        <v>7.994627897889983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0.9507545170562404</v>
       </c>
-      <c r="C34">
-        <v>-2.061375672485499</v>
-      </c>
-      <c r="D34">
-        <v>3.801018057852512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>-3.915387946583038</v>
       </c>
-      <c r="C35">
-        <v>-6.472377563371811</v>
-      </c>
-      <c r="D35">
-        <v>-1.362223302897791</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0.04146741636057438</v>
       </c>
-      <c r="C36">
-        <v>-3.42875879737371</v>
-      </c>
-      <c r="D36">
-        <v>3.137309320630766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0.6425517067009334</v>
       </c>
-      <c r="C37">
-        <v>-2.991585692138232</v>
-      </c>
-      <c r="D37">
-        <v>4.115610394396385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>-0.08465536927001471</v>
       </c>
-      <c r="C38">
-        <v>-3.676000334441809</v>
-      </c>
-      <c r="D38">
-        <v>2.969678772021767</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>-0.5429720961911744</v>
       </c>
-      <c r="C39">
-        <v>-5.06665337150568</v>
-      </c>
-      <c r="D39">
-        <v>3.949433207136255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>-5.665746083857637</v>
       </c>
-      <c r="C40">
-        <v>-10.8951310919454</v>
-      </c>
-      <c r="D40">
-        <v>-0.3375281937973429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>3.79177473854091</v>
       </c>
-      <c r="C41">
-        <v>0.6901253132752361</v>
-      </c>
-      <c r="D41">
-        <v>6.589542588563235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0.7785433327984759</v>
       </c>
-      <c r="C42">
-        <v>-1.721483162111392</v>
-      </c>
-      <c r="D42">
-        <v>4.101776676959679</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1.315437658403495</v>
       </c>
-      <c r="C43">
-        <v>-1.294177313495837</v>
-      </c>
-      <c r="D43">
-        <v>4.051273380556597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>-1.614962083324634</v>
       </c>
-      <c r="C44">
-        <v>-4.323823421201311</v>
-      </c>
-      <c r="D44">
-        <v>0.8249507386989263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0.4675030422965465</v>
       </c>
-      <c r="C45">
-        <v>-4.7945702258127</v>
-      </c>
-      <c r="D45">
-        <v>4.664635848788401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>-0.2496453175728108</v>
       </c>
-      <c r="C46">
-        <v>-2.683594819994117</v>
-      </c>
-      <c r="D46">
-        <v>3.359661780826251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>2.578123769684448</v>
-      </c>
-      <c r="C47">
-        <v>-0.2157515231801521</v>
-      </c>
-      <c r="D47">
-        <v>4.836737369774324</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.496759984042153</v>
+        <v>2.475789292618891</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5.426545557333395</v>
+        <v>4.94379623061878</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-2.780077351736532</v>
+        <v>-3.01719790276086</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-2.949046909389508</v>
+        <v>-2.070443613476591</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.226073429543509</v>
+        <v>4.45335782238927</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.4626164446735137</v>
+        <v>-0.5812990822411157</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.3815690553422679</v>
+        <v>-0.09668735368125736</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3.398051521202716</v>
+        <v>2.378632337651654</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.850105436886285</v>
+        <v>1.682536356701059</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7.49210004187546</v>
+        <v>6.752999314512342</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-2.079651028340723</v>
+        <v>-1.913995137966895</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-0.6496777464566228</v>
+        <v>1.323182107009946</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3.643602269412538</v>
+        <v>2.265022822173002</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.06128986154348</v>
+        <v>0.3725379936313056</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -646,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-5.46442665787239</v>
+        <v>-5.034402919900449</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -654,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-3.256107553236354</v>
+        <v>-2.00710757086956</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.1482496280591494</v>
+        <v>2.15983604534753</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -670,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-3.233103716856356</v>
+        <v>-2.005257380125791</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -678,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5.088251026635171</v>
+        <v>5.064069084067691</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -686,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>8.577247308000956</v>
+        <v>8.16672318462841</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.736634908867773</v>
+        <v>1.354651186648126</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.873936502380925</v>
+        <v>3.726960043080818</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.889754734408911</v>
+        <v>3.853870413064731</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -718,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-6.189085285809249</v>
+        <v>-6.136542251464139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -726,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>-0.01004310457615176</v>
+        <v>0.8565960341307965</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -734,7 +734,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.3634036878042313</v>
+        <v>-0.04097275156873526</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-3.931257346331785</v>
+        <v>-3.076550324058902</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-0.9223998484439555</v>
+        <v>0.648741956155896</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -758,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-2.347511090212417</v>
+        <v>-0.7372842924279532</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -766,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2.743557709929778</v>
+        <v>2.627338670690493</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -774,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-1.314864717719244</v>
+        <v>-0.4958467418382684</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -782,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4.953805491202434</v>
+        <v>2.206112637976743</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -790,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.9507545170562404</v>
+        <v>0.5675770226956312</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -798,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-3.915387946583038</v>
+        <v>-3.805802872007136</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -806,7 +806,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.04146741636057438</v>
+        <v>-0.1307909464774326</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -814,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.6425517067009334</v>
+        <v>1.278351571315484</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -822,7 +822,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-0.08465536927001471</v>
+        <v>-0.2468024802629976</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -830,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-0.5429720961911744</v>
+        <v>-0.2575991648908427</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -838,7 +838,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-5.665746083857637</v>
+        <v>-4.933249099486492</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3.79177473854091</v>
+        <v>3.852305355373686</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -854,7 +854,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.7785433327984759</v>
+        <v>0.4883832498505436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -862,7 +862,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1.315437658403495</v>
+        <v>0.3848593418103619</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -870,7 +870,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-1.614962083324634</v>
+        <v>-1.608369999387882</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -878,7 +878,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.4675030422965465</v>
+        <v>-0.1175648534632256</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -886,7 +886,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>-0.2496453175728108</v>
+        <v>-0.1634534308639801</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -894,7 +894,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.578123769684448</v>
+        <v>2.078053769303501</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q4.xlsx
+++ b/Data/quarter_on_quarter_Q4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Tracker</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -515,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.475789292618891</v>
+        <v>2.258741245274409</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -542,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4.94379623061878</v>
+        <v>4.457713256860174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -550,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-3.01719790276086</v>
+        <v>-2.733972319506139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -558,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-2.070443613476591</v>
+        <v>-1.213547932662629</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.45335782238927</v>
+        <v>4.350511133378721</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-0.5812990822411157</v>
+        <v>1.073113966060668</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.09668735368125736</v>
+        <v>0.1508604709099082</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.378632337651654</v>
+        <v>2.214658052824769</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.682536356701059</v>
+        <v>6.232588771120628</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -606,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6.752999314512342</v>
+        <v>-1.849129652294768</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -614,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-1.913995137966895</v>
+        <v>0.1026048530194945</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.323182107009946</v>
+        <v>2.884643490219596</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -630,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.265022822173002</v>
+        <v>0.4392579328328816</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -638,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.3725379936313056</v>
+        <v>-4.112615690494614</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -646,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-5.034402919900449</v>
+        <v>-1.585352974015919</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -654,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-2.00710757086956</v>
+        <v>1.782836503344276</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.15983604534753</v>
+        <v>-1.608814439290751</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -670,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-2.005257380125791</v>
+        <v>3.759158904643845</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -678,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5.064069084067691</v>
+        <v>7.739947778893153</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -686,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>8.16672318462841</v>
+        <v>1.629199050710839</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -694,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.354651186648126</v>
+        <v>3.173174454956595</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -702,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3.726960043080818</v>
+        <v>3.751209483685058</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -710,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3.853870413064731</v>
+        <v>-4.682448049977883</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -718,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-6.136542251464139</v>
+        <v>0.799097738537724</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -726,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.8565960341307965</v>
+        <v>0.489782472993161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -734,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-0.04097275156873526</v>
+        <v>-0.4781255481392521</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -742,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-3.076550324058902</v>
+        <v>1.004767259816353</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -750,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.648741956155896</v>
+        <v>-1.35470259372884</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -758,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-0.7372842924279532</v>
+        <v>2.936003582665281</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -766,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2.627338670690493</v>
+        <v>-0.2976943691647138</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -774,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-0.4958467418382684</v>
+        <v>2.506834908318734</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -782,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2.206112637976743</v>
+        <v>1.041874471590543</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -790,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5675770226956312</v>
+        <v>-3.617544757536251</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -798,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-3.805802872007136</v>
+        <v>0.108918818806969</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -806,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>-0.1307909464774326</v>
+        <v>1.220467506769096</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -814,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.278351571315484</v>
+        <v>-0.3317683969691454</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -822,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-0.2468024802629976</v>
+        <v>0.5748505697430462</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -830,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-0.2575991648908427</v>
+        <v>-4.126427095782647</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -838,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-4.933249099486492</v>
+        <v>3.354039903014483</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -846,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3.852305355373686</v>
+        <v>-0.01934177203036791</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -854,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.4883832498505436</v>
+        <v>1.175207382358789</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -862,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.3848593418103619</v>
+        <v>-1.008249894661761</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -870,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-1.608369999387882</v>
+        <v>-0.2303077552720634</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -878,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.1175648534632256</v>
+        <v>-0.2562861085712909</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -886,15 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>-0.1634534308639801</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>2.078053769303501</v>
+        <v>2.08569613458558</v>
       </c>
     </row>
   </sheetData>
